--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 16.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">  Upon the whole, I was by this time so fixed upon my design of going over with him to the continent that I told him we would go and make one as big as that, and he should go home in it.</t>
   </si>
@@ -41,15 +41,9 @@
     <t>I told him I was not angry with him at all.</t>
   </si>
   <si>
-    <t>“No angry!” says he, repeating the words several times; “why send Friday home away to my nation?” “Why,” says I, “Friday, did not you say you wished you were there?” “Yes, yes,” says he, “wish we both there; no wish Friday there, no master there.” In a word, he would not think of going there without me.</t>
-  </si>
-  <si>
     <t>“I go there, Friday?” says I; “what shall I do there?” He turned very quick upon me at this.</t>
   </si>
   <si>
-    <t>“You do great deal much good,” says he; “you teach wild mans be good, sober, tame mans; you tell them know God, pray God, and live new life.” “Alas, Friday!” says I, “thou knowest not what thou sayest; I am but an ignorant man myself.” “Yes, yes,” says he, “you teachee me good, you teachee them good.” “No, no, Friday,” says I, “you shall go without me; leave me here to live by myself, as I did before.” He looked confused again at that word; and running to one of the hatchets which he used to wear, he takes it up hastily, and gives it to me.</t>
-  </si>
-  <si>
     <t>“What must I do with this?” says I to him.</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>He returns very quick—“What you send Friday away for?</t>
   </si>
   <si>
-    <t>Take kill Friday, no send Friday away.” This he spoke so earnestly that I saw tears stand in his eyes.</t>
-  </si>
-  <si>
     <t>In a word, I so plainly discovered the utmost affection in him to me, and a firm resolution in him, that I told him then and often after, that I would never send him away from me if he was willing to stay with me.</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>So I asked him if he would, and if we might venture over in her.</t>
   </si>
   <si>
-    <t>“Yes,” he said, “we venture over in her very well, though great blow wind.” However I had a further design that he knew nothing of, and that was, to make a mast and a sail, and to fit her with an anchor and cable.</t>
-  </si>
-  <si>
     <t>As to a mast, that was easy enough to get; so I pitched upon a straight young cedar tree, which I found near the place, and which there were great plenty of in the island, and I set Friday to work to cut it down, and gave him directions how to shape and order it.</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>“O yonder there,” says he, “one, two, three canoes; one, two, three!” By this way of speaking I concluded there were six; but on inquiry I found there were but three.</t>
   </si>
   <si>
-    <t>“Well, Friday,” says I, “do not be frightened.” So I heartened him up as well as I could.</t>
-  </si>
-  <si>
     <t>However, I saw the poor fellow was most terribly scared, for nothing ran in his head but that they were come to look for him, and would cut him in pieces and eat him; and the poor fellow trembled so that I scarcely knew what to do with him.</t>
   </si>
   <si>
@@ -170,12 +155,6 @@
     <t>“But,” says I, “Friday, we must resolve to fight them.</t>
   </si>
   <si>
-    <t>Can you fight, Friday?” “Me shoot,” says he, “but there come many great number.” “No matter for that,” said I again; “our guns will fright them that we do not kill.” So I asked him whether, if I resolved to defend him, he would defend me, and stand by me, and do just as I bid him.</t>
-  </si>
-  <si>
-    <t>He said, “Me die when you bid die, master.” So I went and fetched a good dram of rum and gave him; for I had been so good a husband of my rum that I had a great deal left.</t>
-  </si>
-  <si>
     <t>When we had drunk it, I made him take the two fowling pieces, which we always carried, and loaded them with large swan shot, as big as small pistol bullets.</t>
   </si>
   <si>
@@ -242,9 +221,6 @@
     <t xml:space="preserve"> I had now not a moment to lose, for nineteen of the dreadful wretches sat upon the ground, all close huddled together, and had just sent the other two to butcher the poor Christian, and bring him perhaps limb by limb to their fire, and they were stooping down to untie the bands at his feet.</t>
   </si>
   <si>
-    <t>“Then, Friday,” says I, “do exactly as you see me do; fail in nothing.” So I set down one of the muskets and the fowling piece upon the ground, and Friday did the like by his, and with the other musket I took my aim at the savages, bidding him to do the like; then asking him if he was ready, he said, “Yes.” “Then fire at them,” said I; and at the same moment I fired also.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Friday took his aim so much better than I, that on the side that he shot he killed two of them, and wounded three more; and on my side I killed one, and wounded two.</t>
   </si>
   <si>
@@ -281,9 +257,6 @@
     <t>Then I asked him what countryman he was: and he said, Espagniole; and being a little recovered, let me know, by all the signs he could possibly make, how much he was in my debt for his deliverance.</t>
   </si>
   <si>
-    <t>“Seignior,” said I, with as much Spanish as I could make up, “we will talk afterwards, but we must fight now: if you have any strength left, take this pistol and sword, and lay about you.” He took them very thankfully; and no sooner had he the arms in his hands, but, as if they had put new vigour into him, he flew upon his murderers like a fury, and had cut two of them in pieces in an instant; for the truth is, as the whole was a surprise to them, so the poor creatures were so much frightened with the noise of our pieces that they fell down for mere amazement and fear, and had no more power to attempt their own escape than their flesh had to resist our shot; and that was the case of those five that Friday shot at in the boat; for as three of them fell with the hurt they received, so the other two fell with the fright.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I kept my piece in my hand still without firing, being willing to keep my charge ready, because I had given the Spaniard my pistol and sword: so I called to Friday, and bade him run up to the tree from whence we first fired, and fetch the arms which lay there that had been discharged, which he did with great swiftness; and then giving him my musket, I sat down myself to load all the rest again, and bade them come to me when they wanted.</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
     <t xml:space="preserve"> But to return to Friday; he was so busy about his father that I could not find in my heart to take him off for some time; but after I thought he could leave him a little, I called him to me, and he came jumping and laughing, and pleased to the highest extreme: then I asked him if he had given his father any bread.</t>
   </si>
   <si>
-    <t>He shook his head, and said, “None; ugly dog eat all up self.” I then gave him a cake of bread out of a little pouch I carried on purpose; I also gave him a dram for himself; but he would not taste it, but carried it to his father.</t>
-  </si>
-  <si>
     <t>I had in my pocket two or three bunches of raisins, so I gave him a handful of them for his father.</t>
   </si>
   <si>
@@ -425,13 +395,100 @@
     <t>text</t>
   </si>
   <si>
-    <t>“Are you ready, Friday?” said I. “Yes,” says he.</t>
-  </si>
-  <si>
-    <t>I turned to Friday. “Now, Friday,” said I, “do as I bid thee.” Friday said he would.</t>
-  </si>
-  <si>
-    <t>O sorrow! O bad!”—“What’s the matter, Friday?” says I.</t>
+    <t>“No angry!” says he, repeating the words several times; “why send Friday home away to my nation?” “Why,” says I, “Friday, did not you say you wished you were there?” “Yes, yes,” says he, “wish we both there; no wish Friday there, no master there.”.</t>
+  </si>
+  <si>
+    <t>In a word, he would not think of going there without me.</t>
+  </si>
+  <si>
+    <t>“You do great deal much good,” says he; “you teach wild mans be good, sober, tame mans; you tell them know God, pray God, and live new life.”.</t>
+  </si>
+  <si>
+    <t>“Alas, Friday!” says I, “thou knowest not what thou sayest; I am but an ignorant man myself.”.</t>
+  </si>
+  <si>
+    <t>“Yes, yes,” says he, “you teachee me good, you teachee them good.”.</t>
+  </si>
+  <si>
+    <t>“No, no, Friday,” says I, “you shall go without me; leave me here to live by myself, as I did before.”.</t>
+  </si>
+  <si>
+    <t>He looked confused again at that word; and running to one of the hatchets which he used to wear, he takes it up hastily, and gives it to me.</t>
+  </si>
+  <si>
+    <t>Take kill Friday, no send Friday away.”.</t>
+  </si>
+  <si>
+    <t>This he spoke so earnestly that I saw tears stand in his eyes.</t>
+  </si>
+  <si>
+    <t>“Yes,” he said, “we venture over in her very well, though great blow wind.”.</t>
+  </si>
+  <si>
+    <t>However I had a further design that he knew nothing of, and that was, to make a mast and a sail, and to fit her with an anchor and cable.</t>
+  </si>
+  <si>
+    <t>O sorrow!</t>
+  </si>
+  <si>
+    <t>O bad!”—“What’s the matter, Friday?” says I.</t>
+  </si>
+  <si>
+    <t>“Well, Friday,” says I, “do not be frightened.”.</t>
+  </si>
+  <si>
+    <t>So I heartened him up as well as I could.</t>
+  </si>
+  <si>
+    <t>Can you fight, Friday?” “Me shoot,” says he, “but there come many great number.”.</t>
+  </si>
+  <si>
+    <t>“No matter for that,” said I again; “our guns will fright them that we do not kill.”.</t>
+  </si>
+  <si>
+    <t>So I asked him whether, if I resolved to defend him, he would defend me, and stand by me, and do just as I bid him.</t>
+  </si>
+  <si>
+    <t>He said, “Me die when you bid die, master.”.</t>
+  </si>
+  <si>
+    <t>So I went and fetched a good dram of rum and gave him; for I had been so good a husband of my rum that I had a great deal left.</t>
+  </si>
+  <si>
+    <t>I turned to Friday.</t>
+  </si>
+  <si>
+    <t>“Now, Friday,” said I, “do as I bid thee.”.</t>
+  </si>
+  <si>
+    <t>Friday said he would.</t>
+  </si>
+  <si>
+    <t>“Then, Friday,” says I, “do exactly as you see me do; fail in nothing.”.</t>
+  </si>
+  <si>
+    <t>So I set down one of the muskets and the fowling piece upon the ground, and Friday did the like by his, and with the other musket I took my aim at the savages, bidding him to do the like; then asking him if he was ready, he said, “Yes.”.</t>
+  </si>
+  <si>
+    <t>“Then fire at them,” said I; and at the same moment I fired also.</t>
+  </si>
+  <si>
+    <t>“Are you ready, Friday?” said I.</t>
+  </si>
+  <si>
+    <t>“Yes,” says he.</t>
+  </si>
+  <si>
+    <t>“Seignior,” said I, with as much Spanish as I could make up, “we will talk afterwards, but we must fight now: if you have any strength left, take this pistol and sword, and lay about you.”.</t>
+  </si>
+  <si>
+    <t>He took them very thankfully; and no sooner had he the arms in his hands, but, as if they had put new vigour into him, he flew upon his murderers like a fury, and had cut two of them in pieces in an instant; for the truth is, as the whole was a surprise to them, so the poor creatures were so much frightened with the noise of our pieces that they fell down for mere amazement and fear, and had no more power to attempt their own escape than their flesh had to resist our shot; and that was the case of those five that Friday shot at in the boat; for as three of them fell with the hurt they received, so the other two fell with the fright.</t>
+  </si>
+  <si>
+    <t>He shook his head, and said, “None; ugly dog eat all up self.”.</t>
+  </si>
+  <si>
+    <t>I then gave him a cake of bread out of a little pouch I carried on purpose; I also gave him a dram for himself; but he would not taste it, but carried it to his father.</t>
   </si>
 </sst>
 </file>
@@ -749,20 +806,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A135"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +1003,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +1043,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +1051,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1075,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1083,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1099,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1107,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1123,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1139,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1147,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1163,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1171,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1179,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1187,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1195,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +1203,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +1211,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1219,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1227,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1235,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1243,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1251,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1259,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1267,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1275,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1283,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1291,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1299,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1307,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1315,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1323,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1331,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1339,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1347,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1355,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1363,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1371,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1379,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1387,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1395,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +1403,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1411,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1419,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1427,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1435,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1443,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1451,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1459,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1467,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1475,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1483,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1491,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1499,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1507,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1515,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1523,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1531,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1539,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1547,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1555,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1563,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1571,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1579,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +1587,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1595,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1603,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1611,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1619,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1627,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1635,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1643,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1651,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1659,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1667,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1675,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1683,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1691,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1699,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1707,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1715,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1723,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1731,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1739,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1747,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1755,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1763,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1771,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1779,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1787,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1795,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1811,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1819,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1827,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1835,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1843,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1851,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1859,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1867,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1875,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1883,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1891,159 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
